--- a/public/img/Description_des_items_par_catégories_E_Boutique.xlsx
+++ b/public/img/Description_des_items_par_catégories_E_Boutique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Projet-E-Commerce\public\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB474C8D-E29E-4095-A1CD-1D0A5095AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB49AA8C-014B-4383-94AF-659E5A4DF784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C19AE6A6-6278-43F2-9BAC-E43D909FC7FE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="E-Boutique" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'E-Boutique'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'E-Boutique'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
   <si>
     <t>Catégories</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Livres</t>
-  </si>
-  <si>
-    <t>Ce livre permettra d’entreprendre la bonne démarche de guérison, celle qui mène au résultat recherché : être vous-même. Vous découvrirez également les grandes forces innées en chacun de vous qui contribueront à réaliser pleinement votre vie.</t>
-  </si>
-  <si>
     <t>Animaux</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>Vêtements</t>
   </si>
   <si>
-    <t>Jouets</t>
-  </si>
-  <si>
     <t>Sports</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
   </si>
   <si>
     <t>Samsung Galaxy A03s Caméra arrière 13P + 2MP + 2MP + Batterie longue durée 5000 mAh 4G LTE Noir 32 Go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerColor Liquid Devil AMD Radeon RX 6950 XT </t>
   </si>
   <si>
     <t>Carte graphique avec mémoire GDDR6 16 Go</t>
@@ -107,12 +95,6 @@
     <t>Levi's Style western classique à manches courtes pour homme</t>
   </si>
   <si>
-    <t>Melissa &amp; Doug - 11633 - Loisir Créatif - Jeu de timbres « dinosaures »</t>
-  </si>
-  <si>
-    <t>Valeurs éducatives : Toucher, voir, entendre</t>
-  </si>
-  <si>
     <t>West Kanye - My Beautiful Dark.. (Usa) (3 LP)</t>
   </si>
   <si>
@@ -123,9 +105,6 @@
   </si>
   <si>
     <t>Humidificateur de brume avec 7 lumières LED de couleur - Arrêt automatique sans eau pour chambre à coucher, bureau, maison, cuisine, yoga</t>
-  </si>
-  <si>
-    <t>The Power of One More: The Ultimate Guide to Happiness and Success</t>
   </si>
   <si>
     <t>Harnais</t>
@@ -320,59 +299,38 @@
     <t>Webcam</t>
   </si>
   <si>
-    <t>CozyBomB Jouets de piscine magnétiques pour enfants – Table à eau pour enfants – Jouet de fête pour enfants avec canne à pêche en plastique flottante pour enfants de 3, 4, 5, 6 ans</t>
-  </si>
-  <si>
-    <t>Jouets de piscine</t>
-  </si>
-  <si>
-    <t>Infinno Tummy Time Tapis de jeu à l'eau pour bébé de 3, 6, 9 et 12 mois pour les nourrissons et les tout-petits, centre d'activités pour renforcer les muscles de votre bébé au quotidien Tortue, XL</t>
-  </si>
-  <si>
-    <t>Tortue</t>
-  </si>
-  <si>
-    <t>Tente de jeu 5 en 1 pour enfants - Tunnel de jeu pour tout-petits - Tente d'intérieur et d'extérieur - Jouets pour enfants de 1, 2, 3, 4, 5, 6 ans, garçons et filles - Fête d'anniversaire - Leambe</t>
-  </si>
-  <si>
-    <t>Tente et tunnel</t>
-  </si>
-  <si>
-    <t>Jouets pour garçons et filles de 3 à 10 ans, jouets Luckades arc et flèches pour enfants de 3 à 10 ans, jouets d'intérieur et d'extérieur pour enfants de 3 à 10 ans, cibles de tir à l'arc, jouets d'anniversaire pour garçons et filles de 3 à 10 ans</t>
-  </si>
-  <si>
-    <t>Archier</t>
-  </si>
-  <si>
-    <t>Entre nous (French Edition) Format Kindle</t>
-  </si>
-  <si>
-    <t>Olivier répond à une petite annonce, entourée au feutre rouge par une inconnue : « Démarcheur obsèques à domicile en milieu rural ». L’inconnue, c’est Léa, dont la vie s’effrite peu à peu.</t>
-  </si>
-  <si>
-    <t>Les contraires!: Un livre d'apprentissage précoce amusant pour les 2-5 ans Livre broché – Grands caractères, 28 février 2019</t>
-  </si>
-  <si>
-    <t>Les contraires!</t>
-  </si>
-  <si>
-    <t>Une lettre pour tout changer (French Edition) Format Kindle Et si une lettre pouvait changer le cours de votre vie ?</t>
-  </si>
-  <si>
-    <t>Une lettre pour tout changer</t>
-  </si>
-  <si>
-    <t>LE Livre pour Enfant sur les Émotions Sociales, sur la Diversité et la Gentillesse (Livre Illustré pour Garçons et pour Filles) Livre broché – 23 mars 2022</t>
-  </si>
-  <si>
-    <t>Notre Diversité Nous Rend Plus Fort</t>
+    <t>Prix</t>
+  </si>
+  <si>
+    <t>Super Retro Classic Console de jeu vidéo, lecteur de télévision intégré 400 jeux avec double manettes</t>
+  </si>
+  <si>
+    <t>LeapFrog LeapLand Adventures Learning TV Jeu vidéo – Édition anglais, manette sans fil avec clé de jeu HDMI Plug and Play pour enfants à partir de 3 ans</t>
+  </si>
+  <si>
+    <t>LeapFrog</t>
+  </si>
+  <si>
+    <t>PlayStation</t>
+  </si>
+  <si>
+    <t>Marvel's Spider-Man: Game of the Year - PlayStation 4</t>
+  </si>
+  <si>
+    <t>SpiderMan</t>
+  </si>
+  <si>
+    <t>Current Stock</t>
+  </si>
+  <si>
+    <t>Carte graphique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,8 +376,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,8 +398,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -460,31 +432,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -498,9 +459,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -510,44 +468,52 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAC10C0-199C-4C9A-8510-9DDB04B72497}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -874,9 +840,10 @@
     <col min="1" max="1" width="17.90625" customWidth="1"/>
     <col min="2" max="2" width="35.6328125" customWidth="1"/>
     <col min="3" max="3" width="77" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,593 +853,762 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="17">
+        <v>20</v>
+      </c>
+      <c r="E2" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="17">
+        <v>35</v>
+      </c>
+      <c r="E3" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="17">
+        <v>100</v>
+      </c>
+      <c r="E4" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="17">
+        <v>125</v>
+      </c>
+      <c r="E5" s="17">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
+    </row>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="17">
+        <v>60</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="17">
+        <v>200</v>
+      </c>
+      <c r="E7" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="17">
+        <v>800</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="17">
+        <v>300</v>
+      </c>
+      <c r="E9" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="17">
+        <v>40</v>
+      </c>
+      <c r="E10" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="17">
+        <v>75</v>
+      </c>
+      <c r="E11" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="17">
+        <v>150</v>
+      </c>
+      <c r="E12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="17">
+        <v>40</v>
+      </c>
+      <c r="E13" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="18" customFormat="1" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="17">
+        <v>30</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="17">
+        <v>600</v>
+      </c>
+      <c r="E15" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="17">
+        <v>80</v>
+      </c>
+      <c r="E16" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="17">
+        <v>199</v>
+      </c>
+      <c r="E17" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D18" s="17">
+        <v>125</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="17">
+        <v>80</v>
+      </c>
+      <c r="E19" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="23" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="17">
+        <v>80</v>
+      </c>
+      <c r="E20" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="23" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="17">
+        <v>40</v>
+      </c>
+      <c r="E21" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="17">
+        <v>20</v>
+      </c>
+      <c r="E22" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="23" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="17">
+        <v>20</v>
+      </c>
+      <c r="E23" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="17">
+        <v>20</v>
+      </c>
+      <c r="E24" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="17">
+        <v>20</v>
+      </c>
+      <c r="E25" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="17">
+        <v>20</v>
+      </c>
+      <c r="E26" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="17">
+        <v>25</v>
+      </c>
+      <c r="E27" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="23" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="17">
+        <v>20</v>
+      </c>
+      <c r="E28" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="23" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="17">
+        <v>50</v>
+      </c>
+      <c r="E29" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="17">
+        <v>100</v>
+      </c>
+      <c r="E30" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="17">
+        <v>500</v>
+      </c>
+      <c r="E31" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="23" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="17">
+        <v>35</v>
+      </c>
+      <c r="E32" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="17">
+        <v>15</v>
+      </c>
+      <c r="E33" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="17">
+        <v>30</v>
+      </c>
+      <c r="E34" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="23" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="17">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="23" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="17">
+        <v>40</v>
+      </c>
+      <c r="E36" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="17">
+        <v>40</v>
+      </c>
+      <c r="E37" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="17">
+        <v>35</v>
+      </c>
+      <c r="E38" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="17">
+        <v>20</v>
+      </c>
+      <c r="E39" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="C40" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="17">
+        <v>50</v>
+      </c>
+      <c r="E40" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="25" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="25" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="25" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="25" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="18" t="s">
+      <c r="D41" s="17">
         <v>15</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="23" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="25" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="E41" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="12"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="12"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="12"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="8"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="8"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="8"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="8"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{4FAC10C0-199C-4C9A-8510-9DDB04B72497}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C62">
-    <sortCondition ref="A1:A62"/>
+  <autoFilter ref="A1:E1" xr:uid="{4FAC10C0-199C-4C9A-8510-9DDB04B72497}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C55">
+    <sortCondition ref="A1:A55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
